--- a/InputFiles/CTDC/TC02_CTDC_CollectTimepoint-BaselineFresh.xlsx
+++ b/InputFiles/CTDC/TC02_CTDC_CollectTimepoint-BaselineFresh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CTDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8400AE-D26E-487F-B4D8-8F7B66BCF1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB97181-601C-41C1-82A5-9E3D0D1142AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,46 +68,115 @@
     <t>TC02_CTDC_CollectTimepoint-BaselineFresh_WebData.xlsx</t>
   </si>
   <si>
+    <t>SELECT 
+    COUNT(DISTINCT std.study_id) AS Studies,
+    COUNT(DISTINCT prt.participant_id) AS Participants,
+    COUNT(DISTINCT dgn.ctep_disease_term) AS Diagnoses,
+    COUNT(DISTINCT tgt.targeted_therapy) AS "Targeted Therapies",
+    COUNT(DISTINCT bio.specimen_record_id) AS Biospecimens,
+    COUNT(DISTINCT fil.data_file_uuid) AS Files
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt 
+        ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN 
+    df_diagnosis dgn 
+        ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_demographic demo 
+        ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN 
+    df_exposure exp 
+        ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN 
+    df_targeted_therapy tgt 
+        ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN 
+    df_non_targeted_therapy ntt 
+        ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN 
+    df_participant_status pst 
+        ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN 
+    df_biospecimen bio 
+        ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN 
+    df_file fil 
+        ON prt.participant_id = fil."participant.participant_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+    AND bio.assessment_timepoint = 'Baseline (Fresh)';</t>
+  </si>
+  <si>
     <t>SELECT
     prt.participant_id AS "Participant ID",
     dgn.ctep_disease_term AS "Diagnosis",
     demo.age_at_enrollment AS "Age",
     demo.sex AS "Sex",
     demo.race AS "Race",
-    demo.ethnicity AS "Ethnicity",
+ CASE
+        WHEN lower(trim(demo.ethnicity)) = 'not reported'
+            THEN 'Not reported'
+        ELSE trim(demo.ethnicity)
+    END   AS "Ethnicity",
     exp.carcinogen_exposure AS "Carcinogen Exposure",
-    REPLACE(
-        GROUP_CONCAT(
-            DISTINCT
-            UPPER(SUBSTR(LOWER(tgt.targeted_therapy), 1, 1)) ||
-            SUBSTR(LOWER(tgt.targeted_therapy), 2)
-        ),
-        ',',
-        ', '
-    ) AS "Targeted Therapy"
-FROM 
+CASE
+  WHEN (
+    SELECT COUNT(*)
+    FROM df_targeted_therapy t2
+    WHERE t2."participant.participant_id" = prt.participant_id
+      AND t2.targeted_therapy IS NOT NULL
+      AND TRIM(t2.targeted_therapy) &lt;&gt; ''
+      AND LOWER(TRIM(t2.targeted_therapy)) &lt;&gt; 'not reported'
+  ) = 0
+  THEN 'Not Reported'
+  ELSE (
+    SELECT GROUP_CONCAT(therapy, ', ')
+    FROM (
+      SELECT DISTINCT
+        TRIM(t2.targeted_therapy) AS therapy
+      FROM df_targeted_therapy t2
+      WHERE t2."participant.participant_id" = prt.participant_id
+        AND t2.targeted_therapy IS NOT NULL
+        AND TRIM(t2.targeted_therapy) &lt;&gt; ''
+        AND LOWER(TRIM(t2.targeted_therapy)) &lt;&gt; 'not reported'
+      ORDER BY therapy ASC
+    )
+  )
+END AS "Targeted Therapy"
+    FROM 
     df_study std
-LEFT JOIN df_participant prt 
-    ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN df_diagnosis dgn 
-    ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN df_demographic demo 
-    ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN df_exposure exp 
-    ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN df_targeted_therapy tgt 
-    ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN df_non_targeted_therapy ntt 
-    ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN df_participant_status pst 
-    ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN df_biospecimen bio 
-    ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN df_file fil 
-    ON prt.participant_id = fil."participant.participant_id"
+LEFT JOIN 
+    df_participant prt 
+        ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN 
+    df_diagnosis dgn 
+        ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_demographic demo 
+        ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN 
+    df_exposure exp 
+        ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN 
+    df_targeted_therapy tgt 
+        ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN 
+    df_non_targeted_therapy ntt 
+        ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN 
+    df_participant_status pst 
+        ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN 
+    df_biospecimen bio 
+        ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN 
+    df_file fil 
+        ON prt.participant_id = fil."participant.participant_id"
 WHERE 
     std.study_id = 'NCT04314401'
-    AND bio.assessment_timepoint = 'Baseline (Fresh)'
+     AND bio.assessment_timepoint = 'Baseline (Fresh)'
 GROUP BY
     prt.participant_id,
     dgn.ctep_disease_term,
@@ -119,86 +188,40 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT 
-    COUNT(DISTINCT std.study_id) AS Studies,
-    COUNT(DISTINCT prt.participant_id) AS Participants,
-    COUNT(DISTINCT dgn.ctep_disease_term) AS Diagnoses,
-    COUNT(DISTINCT tgt.targeted_therapy) AS "Targeted Therapies",
-    COUNT(DISTINCT bio.specimen_record_id) AS Biospecimens,
-    COUNT(DISTINCT fil.data_file_uuid) AS Files
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401'
-    AND bio.assessment_timepoint = 'Baseline (Fresh)';</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT
     prt.participant_id AS "Participant ID",
     dgn.ctep_disease_term AS "Diagnosis",
-    dgn.primary_disease_site AS "Primary Site",
+ dgn.primary_disease_site AS "Primary Site",
     bio.specimen_record_id AS "Specimen Record ID",
-    bio.anatomical_collection_site AS "Anatomical Collection Site",
+    CASE
+        WHEN trim(bio.anatomical_collection_site) IS NULL
+             OR trim(bio.anatomical_collection_site) = ''
+            THEN 'Not reported'
+        ELSE trim(bio.anatomical_collection_site)
+    END  AS "Anatomical Collection Site",
     bio.tissue_category AS "Tissue Category",
     bio.assessment_timepoint AS "Collection Timepoint"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401' AND bio.assessment_timepoint = 'Baseline (Fresh)'
+FROM df_study std
+LEFT JOIN df_participant prt
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil
+    ON prt.participant_id = fil."participant.participant_id"
+WHERE std.study_id = 'NCT04314401'
+   AND bio.assessment_timepoint = 'Baseline (Fresh)'
 LIMIT 100;</t>
   </si>
   <si>
@@ -263,7 +286,7 @@
     std.study_id = 'NCT04314401'
     AND bio.assessment_timepoint = 'Baseline (Fresh)'
     AND fil.data_file_name IS NOT NULL
-LIMIT 100;</t>
+    Limit 100;</t>
   </si>
 </sst>
 </file>
@@ -655,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
